--- a/Retailers Ledger/KALER.xlsx
+++ b/Retailers Ledger/KALER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RAJA MOBILE CENTER-(661032976)" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="17">
   <si>
     <t>RAJA MOBILE CENTER-(661032976)</t>
   </si>
@@ -78,8 +78,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -105,21 +105,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,11 +134,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,9 +163,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,8 +179,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,54 +220,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +233,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -268,181 +268,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +459,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,8 +504,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,66 +559,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,134 +582,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,12 +726,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1071,26 +1065,26 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.2857142857143" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.8571428571429" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14" style="8" customWidth="1"/>
-    <col min="7" max="16382" width="9.14285714285714" style="8"/>
-    <col min="16383" max="16384" width="9.14285714285714" style="10"/>
+    <col min="1" max="1" width="17" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.8571428571429" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14" style="6" customWidth="1"/>
+    <col min="7" max="16382" width="9.14285714285714" style="6"/>
+    <col min="16383" max="16384" width="9.14285714285714" style="8"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -1179,78 +1173,91 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" spans="1:5">
+    <row r="8" s="6" customFormat="1" spans="1:5">
       <c r="A8" s="5">
         <v>44171</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>3120</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" spans="1:5">
+    <row r="9" s="6" customFormat="1" spans="1:5">
       <c r="A9" s="5">
         <v>44172</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>6000</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" spans="1:5">
+    <row r="10" s="6" customFormat="1" spans="1:5">
       <c r="A10" s="5">
         <v>44173</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>5200</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>5000</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="1" spans="1:5">
+    <row r="11" s="6" customFormat="1" spans="1:5">
       <c r="A11" s="5">
         <v>44174</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>5000</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="1"/>
-    <row r="13" s="8" customFormat="1"/>
-    <row r="14" s="8" customFormat="1"/>
-    <row r="15" s="8" customFormat="1"/>
-    <row r="16" s="10" customFormat="1"/>
-    <row r="17" s="10" customFormat="1"/>
-    <row r="18" s="10" customFormat="1"/>
-    <row r="19" s="10" customFormat="1"/>
-    <row r="20" s="10" customFormat="1"/>
-    <row r="21" s="10" customFormat="1"/>
-    <row r="22" s="10" customFormat="1"/>
-    <row r="23" s="10" customFormat="1"/>
-    <row r="24" s="10" customFormat="1"/>
-    <row r="25" s="8" customFormat="1"/>
-    <row r="26" s="8" customFormat="1"/>
-    <row r="27" s="8" customFormat="1"/>
+    <row r="12" s="6" customFormat="1" spans="1:5">
+      <c r="A12" s="5">
+        <v>44177</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5200</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1"/>
+    <row r="14" s="6" customFormat="1"/>
+    <row r="15" s="6" customFormat="1"/>
+    <row r="16" s="8" customFormat="1"/>
+    <row r="17" s="8" customFormat="1"/>
+    <row r="18" s="8" customFormat="1"/>
+    <row r="19" s="8" customFormat="1"/>
+    <row r="20" s="8" customFormat="1"/>
+    <row r="21" s="8" customFormat="1"/>
+    <row r="22" s="8" customFormat="1"/>
+    <row r="23" s="8" customFormat="1"/>
+    <row r="24" s="8" customFormat="1"/>
+    <row r="25" s="6" customFormat="1"/>
+    <row r="26" s="6" customFormat="1"/>
+    <row r="27" s="6" customFormat="1"/>
     <row r="28" customFormat="1"/>
     <row r="29" customFormat="1"/>
     <row r="30" customFormat="1"/>
@@ -1263,40 +1270,40 @@
     <row r="37" customFormat="1"/>
     <row r="38" customFormat="1"/>
     <row r="39" customFormat="1"/>
-    <row r="40" s="8" customFormat="1"/>
-    <row r="41" s="8" customFormat="1"/>
-    <row r="42" s="8" customFormat="1"/>
+    <row r="40" s="6" customFormat="1"/>
+    <row r="41" s="6" customFormat="1"/>
+    <row r="42" s="6" customFormat="1"/>
     <row r="43" customFormat="1"/>
     <row r="44" customFormat="1"/>
     <row r="45" customFormat="1"/>
     <row r="46" customFormat="1"/>
     <row r="47" customFormat="1"/>
-    <row r="48" s="8" customFormat="1" spans="1:1">
-      <c r="A48" s="12"/>
-    </row>
-    <row r="49" s="8" customFormat="1" spans="1:1">
-      <c r="A49" s="12"/>
-    </row>
-    <row r="50" s="8" customFormat="1"/>
+    <row r="48" s="6" customFormat="1" spans="1:1">
+      <c r="A48" s="10"/>
+    </row>
+    <row r="49" s="6" customFormat="1" spans="1:1">
+      <c r="A49" s="10"/>
+    </row>
+    <row r="50" s="6" customFormat="1"/>
     <row r="51" customFormat="1"/>
     <row r="52" customFormat="1"/>
     <row r="53" customFormat="1"/>
     <row r="54" customFormat="1"/>
-    <row r="55" s="8" customFormat="1" spans="1:1">
-      <c r="A55" s="12"/>
-    </row>
-    <row r="56" s="8" customFormat="1"/>
-    <row r="57" s="8" customFormat="1"/>
+    <row r="55" s="6" customFormat="1" spans="1:1">
+      <c r="A55" s="10"/>
+    </row>
+    <row r="56" s="6" customFormat="1"/>
+    <row r="57" s="6" customFormat="1"/>
     <row r="58" customFormat="1"/>
     <row r="59" customFormat="1"/>
     <row r="60" customFormat="1"/>
-    <row r="61" s="8" customFormat="1" spans="1:1">
-      <c r="A61" s="12"/>
-    </row>
-    <row r="62" s="8" customFormat="1"/>
-    <row r="63" s="8" customFormat="1"/>
-    <row r="64" s="8" customFormat="1" spans="1:1">
-      <c r="A64" s="12"/>
+    <row r="61" s="6" customFormat="1" spans="1:1">
+      <c r="A61" s="10"/>
+    </row>
+    <row r="62" s="6" customFormat="1"/>
+    <row r="63" s="6" customFormat="1"/>
+    <row r="64" s="6" customFormat="1" spans="1:1">
+      <c r="A64" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1310,10 +1317,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1328,11 +1335,11 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -1547,18 +1554,32 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" s="8" customFormat="1" spans="1:5">
+    <row r="17" s="6" customFormat="1" spans="1:5">
       <c r="A17" s="5">
         <v>44175</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>2000</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5">
+        <v>44176</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1756,20 +1777,20 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.2857142857143" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="7"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
@@ -1884,13 +1905,13 @@
       <c r="A9" s="5">
         <v>44175</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="1">
         <v>1000</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1909,8 +1930,8 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -2019,8 +2040,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
+        <v>44176</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3120</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Retailers Ledger/KALER.xlsx
+++ b/Retailers Ledger/KALER.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="17">
   <si>
     <t>RAJA MOBILE CENTER-(661032976)</t>
   </si>
@@ -77,10 +77,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -105,7 +105,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,8 +134,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,6 +158,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -149,49 +227,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,44 +240,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -268,187 +268,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,6 +464,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -471,17 +497,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,16 +531,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,40 +559,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -582,134 +582,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,6 +726,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,26 +1068,26 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.2857142857143" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.8571428571429" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14" style="6" customWidth="1"/>
-    <col min="7" max="16382" width="9.14285714285714" style="6"/>
-    <col min="16383" max="16384" width="9.14285714285714" style="8"/>
+    <col min="1" max="1" width="17" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.8571428571429" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14" style="7" customWidth="1"/>
+    <col min="7" max="16382" width="9.14285714285714" style="7"/>
+    <col min="16383" max="16384" width="9.14285714285714" style="9"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -1127,7 +1130,8 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -1141,7 +1145,8 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E24" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1155,7 +1160,8 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -1169,95 +1175,170 @@
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" spans="1:5">
+    <row r="8" s="7" customFormat="1" spans="1:5">
       <c r="A8" s="5">
         <v>44171</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>3120</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="6">
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" spans="1:5">
+    <row r="9" s="7" customFormat="1" spans="1:5">
       <c r="A9" s="5">
         <v>44172</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>6000</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" spans="1:5">
+    <row r="10" s="7" customFormat="1" spans="1:5">
       <c r="A10" s="5">
         <v>44173</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>5200</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="6">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" spans="1:5">
+    <row r="11" s="7" customFormat="1" spans="1:5">
       <c r="A11" s="5">
         <v>44174</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>5000</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" spans="1:5">
+    <row r="12" s="7" customFormat="1" spans="1:5">
       <c r="A12" s="5">
         <v>44177</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>5200</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="6">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1"/>
-    <row r="14" s="6" customFormat="1"/>
-    <row r="15" s="6" customFormat="1"/>
-    <row r="16" s="8" customFormat="1"/>
-    <row r="17" s="8" customFormat="1"/>
-    <row r="18" s="8" customFormat="1"/>
-    <row r="19" s="8" customFormat="1"/>
-    <row r="20" s="8" customFormat="1"/>
-    <row r="21" s="8" customFormat="1"/>
-    <row r="22" s="8" customFormat="1"/>
-    <row r="23" s="8" customFormat="1"/>
-    <row r="24" s="8" customFormat="1"/>
-    <row r="25" s="6" customFormat="1"/>
-    <row r="26" s="6" customFormat="1"/>
-    <row r="27" s="6" customFormat="1"/>
+    <row r="13" s="7" customFormat="1" spans="1:5">
+      <c r="A13" s="5">
+        <v>44177</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5000</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="7" customFormat="1" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" s="7" customFormat="1" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" s="9" customFormat="1" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" s="9" customFormat="1" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" s="9" customFormat="1" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" s="9" customFormat="1" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" s="9" customFormat="1" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" s="9" customFormat="1" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" s="9" customFormat="1" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" s="9" customFormat="1" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" s="9" customFormat="1" spans="5:5">
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" s="7" customFormat="1"/>
+    <row r="26" s="7" customFormat="1"/>
+    <row r="27" s="7" customFormat="1"/>
     <row r="28" customFormat="1"/>
     <row r="29" customFormat="1"/>
     <row r="30" customFormat="1"/>
@@ -1270,40 +1351,40 @@
     <row r="37" customFormat="1"/>
     <row r="38" customFormat="1"/>
     <row r="39" customFormat="1"/>
-    <row r="40" s="6" customFormat="1"/>
-    <row r="41" s="6" customFormat="1"/>
-    <row r="42" s="6" customFormat="1"/>
+    <row r="40" s="7" customFormat="1"/>
+    <row r="41" s="7" customFormat="1"/>
+    <row r="42" s="7" customFormat="1"/>
     <row r="43" customFormat="1"/>
     <row r="44" customFormat="1"/>
     <row r="45" customFormat="1"/>
     <row r="46" customFormat="1"/>
     <row r="47" customFormat="1"/>
-    <row r="48" s="6" customFormat="1" spans="1:1">
-      <c r="A48" s="10"/>
-    </row>
-    <row r="49" s="6" customFormat="1" spans="1:1">
-      <c r="A49" s="10"/>
-    </row>
-    <row r="50" s="6" customFormat="1"/>
+    <row r="48" s="7" customFormat="1" spans="1:1">
+      <c r="A48" s="11"/>
+    </row>
+    <row r="49" s="7" customFormat="1" spans="1:1">
+      <c r="A49" s="11"/>
+    </row>
+    <row r="50" s="7" customFormat="1"/>
     <row r="51" customFormat="1"/>
     <row r="52" customFormat="1"/>
     <row r="53" customFormat="1"/>
     <row r="54" customFormat="1"/>
-    <row r="55" s="6" customFormat="1" spans="1:1">
-      <c r="A55" s="10"/>
-    </row>
-    <row r="56" s="6" customFormat="1"/>
-    <row r="57" s="6" customFormat="1"/>
+    <row r="55" s="7" customFormat="1" spans="1:1">
+      <c r="A55" s="11"/>
+    </row>
+    <row r="56" s="7" customFormat="1"/>
+    <row r="57" s="7" customFormat="1"/>
     <row r="58" customFormat="1"/>
     <row r="59" customFormat="1"/>
     <row r="60" customFormat="1"/>
-    <row r="61" s="6" customFormat="1" spans="1:1">
-      <c r="A61" s="10"/>
-    </row>
-    <row r="62" s="6" customFormat="1"/>
-    <row r="63" s="6" customFormat="1"/>
-    <row r="64" s="6" customFormat="1" spans="1:1">
-      <c r="A64" s="10"/>
+    <row r="61" s="7" customFormat="1" spans="1:1">
+      <c r="A61" s="11"/>
+    </row>
+    <row r="62" s="7" customFormat="1"/>
+    <row r="63" s="7" customFormat="1"/>
+    <row r="64" s="7" customFormat="1" spans="1:1">
+      <c r="A64" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1317,10 +1398,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1335,11 +1416,11 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -1382,7 +1463,8 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -1396,7 +1478,8 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E44" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1410,7 +1493,8 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -1424,7 +1508,8 @@
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -1438,7 +1523,8 @@
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -1452,7 +1538,8 @@
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
@@ -1466,7 +1553,8 @@
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
@@ -1480,7 +1568,8 @@
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -1494,7 +1583,8 @@
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -1508,7 +1598,8 @@
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
     </row>
@@ -1522,7 +1613,8 @@
       <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -1536,7 +1628,8 @@
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
     </row>
@@ -1550,21 +1643,23 @@
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" spans="1:5">
+    <row r="17" s="7" customFormat="1" spans="1:5">
       <c r="A17" s="5">
         <v>44175</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>2000</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="6">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -1578,8 +1673,183 @@
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
         <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5">
+        <v>44177</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5">
+        <v>44177</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5200</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1595,10 +1865,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1660,7 +1930,8 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -1674,7 +1945,8 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E24" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1688,7 +1960,8 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -1702,7 +1975,8 @@
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -1716,7 +1990,8 @@
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1730,7 +2005,8 @@
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -1744,7 +2020,8 @@
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
@@ -1758,8 +2035,87 @@
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1775,10 +2131,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1841,7 +2197,8 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>1000</v>
       </c>
     </row>
@@ -1855,7 +2212,8 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E24" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1869,7 +2227,8 @@
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -1883,7 +2242,8 @@
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1897,7 +2257,8 @@
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -1911,8 +2272,99 @@
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1928,13 +2380,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
@@ -1994,7 +2446,8 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -2008,7 +2461,8 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E27" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -2022,7 +2476,8 @@
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -2036,7 +2491,8 @@
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2050,8 +2506,132 @@
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
         <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>44177</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Retailers Ledger/KALER.xlsx
+++ b/Retailers Ledger/KALER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RAJA MOBILE CENTER-(661032976)" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="NAVEEN MOB CENTRE-(660903120)" sheetId="4" r:id="rId3"/>
     <sheet name="SANTOSH PUSTAK BHAN-(661063900)" sheetId="5" r:id="rId4"/>
     <sheet name="Glaxy Mobile Studio-(660587311)" sheetId="6" r:id="rId5"/>
+    <sheet name="NAVEEN RECHARGE CENT(661474491)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="18">
   <si>
     <t>RAJA MOBILE CENTER-(661032976)</t>
   </si>
@@ -70,17 +71,20 @@
   <si>
     <t>Glaxy Mobile and Digital Studio-(660587311)</t>
   </si>
+  <si>
+    <t>NAVEEN RECHARGE CENTRE(661474491)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,35 +101,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -136,37 +111,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -174,30 +118,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,7 +134,75 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,20 +215,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -268,25 +272,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,157 +428,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,11 +468,65 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,31 +550,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,50 +563,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -582,130 +586,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -725,7 +729,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -743,7 +747,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2382,8 +2386,8 @@
   <sheetPr/>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2642,4 +2646,243 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="5">
+        <v>44177</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2080</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="5"/>
+      <c r="E5" s="6" t="str">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="5:5">
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="5:5">
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="5:5">
+      <c r="E24" s="6" t="str">
+        <f>IF(A24="","",E23+B24/1.04-C24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="5:5">
+      <c r="E25" s="6" t="str">
+        <f>IF(A25="","",E24+B25/1.04-C25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="5:5">
+      <c r="E26" s="6" t="str">
+        <f>IF(A26="","",E25+B26/1.04-C26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="5:5">
+      <c r="E27" s="6" t="str">
+        <f>IF(A27="","",E26+B27/1.04-C27)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>